--- a/XinHu/data/time.xlsx
+++ b/XinHu/data/time.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FA9398-D44E-42F2-900B-8F4A4332782E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,14 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;/a&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,10 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3b铅笔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,13 +179,21 @@
   </si>
   <si>
     <t>打印机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qeqe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112aa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -522,69 +519,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="15.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -597,68 +594,53 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -669,71 +651,61 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -744,58 +716,58 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -806,43 +778,43 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+        <v>122223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2112</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
